--- a/src/test/resources/data/DatosUsuario.xlsx
+++ b/src/test/resources/data/DatosUsuario.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliana.gomez\Videos\Reto-Haceb\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliana.gomez\Downloads\Reto-Hacebb\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA48A0-E754-4071-88D5-31AA058C8EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666326B-8657-4435-A061-AA42A92F3ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{716B4972-15C2-4CD2-BE22-C7E6DD11085C}"/>
+    <workbookView xWindow="5124" yWindow="5280" windowWidth="17280" windowHeight="8964" xr2:uid="{716B4972-15C2-4CD2-BE22-C7E6DD11085C}"/>
   </bookViews>
   <sheets>
-    <sheet name="datosUsuario" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,9 +47,6 @@
     <t>Apellido</t>
   </si>
   <si>
-    <t>Contraseña</t>
-  </si>
-  <si>
     <t>Cedula</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>Ext</t>
+  </si>
+  <si>
     <t>capryy0943@gmail.com</t>
   </si>
   <si>
@@ -77,7 +77,7 @@
     <t>ConfirmacionContrasena</t>
   </si>
   <si>
-    <t>8/27/2001</t>
+    <t>Contrasena</t>
   </si>
 </sst>
 </file>
@@ -441,20 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6542D507-3BD8-40D9-959C-28DF50BFF4C7}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,22 +464,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -502,8 +504,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
+      <c r="H2" s="2">
+        <v>37140</v>
+      </c>
+      <c r="I2">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
